--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/10/seed5/result_data_RandomForest.xlsx
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.85550000000002</v>
+        <v>18.04990000000002</v>
       </c>
     </row>
     <row r="13">
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.79809999999998</v>
+        <v>16.79999999999998</v>
       </c>
     </row>
     <row r="33">
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>17.16760000000002</v>
+        <v>16.98280000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.61139999999999</v>
+        <v>16.46179999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.1023</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="47">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.6913</v>
+        <v>16.6471</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.5921</v>
+        <v>16.60830000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.06340000000001</v>
+        <v>17.23020000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.21450000000002</v>
+        <v>17.30680000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.5585</v>
+        <v>16.47440000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>18.64570000000002</v>
+        <v>18.61510000000001</v>
       </c>
     </row>
     <row r="92">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.5503</v>
+        <v>16.4637</v>
       </c>
     </row>
     <row r="100">
